--- a/data/acoes_top.xlsx
+++ b/data/acoes_top.xlsx
@@ -443,21 +443,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BEEF3</t>
+          <t>BBSE3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BBSE3</t>
+          <t>LEVE3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LEVE3</t>
+          <t>CURY3</t>
         </is>
       </c>
     </row>
